--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="37395" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="37395" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3D Printed Parts" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
   <si>
     <t>Ball Bearing (id:8mm;od:22mm;w:7mm)</t>
   </si>
@@ -52,18 +52,12 @@
     <t>Low Pass Filter Capacitor</t>
   </si>
   <si>
-    <t>Metal Frame Corner Connector</t>
-  </si>
-  <si>
     <t>Nut M2</t>
   </si>
   <si>
     <t>One Way Bearing Clutch (id:8mm;od:22mm;w:7mm)</t>
   </si>
   <si>
-    <t>Shaft</t>
-  </si>
-  <si>
     <t>TPU Rubber Feet</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>To fasten the 4 Box Corner Stands to the 2020 extrusions</t>
   </si>
   <si>
-    <t>To fasten the 4 Metal frame corner connector to the 2020 extrusions</t>
-  </si>
-  <si>
     <t>Motor &amp; Arduino Holder [MIRRORED] (Only Used if v.1 is not used)</t>
   </si>
   <si>
@@ -229,15 +220,9 @@
     <t>To hold the Upper Ball Bearing stabilizer (No hall sensor support) (Only Used if v.2 is not used)</t>
   </si>
   <si>
-    <t>To secure the Flange Hub to the Centifuge Test Tube Holder</t>
-  </si>
-  <si>
     <t>To counter weight the magnets on the Test Tube Holder</t>
   </si>
   <si>
-    <t>To secure the Centifuge Test Tube Holder to the Shaft</t>
-  </si>
-  <si>
     <t>To fasten the Hull Sensor in place below (1.5mm) the spinning magnet</t>
   </si>
   <si>
@@ -253,9 +238,6 @@
     <t>2020 Extrusion (300mm)</t>
   </si>
   <si>
-    <t xml:space="preserve"> To use as Centrifuge frame for stabilizerand centrifuge when running</t>
-  </si>
-  <si>
     <t>To connect the motor to the shaft</t>
   </si>
   <si>
@@ -416,6 +398,30 @@
   </si>
   <si>
     <t>* If firmware pin assignments are modified, this wiring list must be updated accordingly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To use as Centrifuge frame for stabilizing centrifuge when running</t>
+  </si>
+  <si>
+    <t>To secure the Flange Hub to the Centrifuge Test Tube Holder</t>
+  </si>
+  <si>
+    <t>To secure the Centrifuge Test Tube Holder to the Shaft</t>
+  </si>
+  <si>
+    <t>Corner Gusset Plate</t>
+  </si>
+  <si>
+    <t>To fasten the 4 Corner Gusset Plate to the 2020 extrusions</t>
+  </si>
+  <si>
+    <t>Arduino UNO power adapter</t>
+  </si>
+  <si>
+    <t>To feed power to the Arduino from the socket</t>
+  </si>
+  <si>
+    <t>Shaft M8 (Steel) 160mm</t>
   </si>
 </sst>
 </file>
@@ -797,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -811,16 +817,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,10 +834,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -842,13 +848,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -870,10 +876,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -884,10 +890,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -898,10 +904,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -912,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -926,13 +932,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,10 +946,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -954,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -968,10 +974,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -985,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -996,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1010,10 +1016,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -1024,10 +1030,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1">
         <v>4</v>
@@ -1041,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -1049,7 +1055,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1069,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,16 +1082,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1110,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1124,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1138,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1149,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1163,10 +1169,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1180,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1194,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1205,32 +1211,48 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+      <c r="D12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
+      <c r="D13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+      <c r="D14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
+      <c r="D15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
+      <c r="D16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1245,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,16 +1280,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -1289,10 +1311,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -1303,10 +1325,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1317,10 +1339,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -1331,10 +1353,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -1345,10 +1367,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -1359,10 +1381,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -1373,10 +1395,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
@@ -1390,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1404,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1415,10 +1437,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1429,10 +1451,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1443,10 +1465,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -1457,13 +1479,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1471,10 +1493,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1488,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1499,10 +1521,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1516,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1575,16 +1597,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1606,10 +1628,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1620,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1634,10 +1656,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1648,10 +1670,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1662,10 +1684,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1676,10 +1698,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1690,10 +1712,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1704,10 +1726,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1718,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1732,10 +1754,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1746,10 +1768,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1760,10 +1782,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1774,10 +1796,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1788,10 +1810,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1802,10 +1824,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1816,10 +1838,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1830,10 +1852,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1844,10 +1866,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1858,10 +1880,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1872,10 +1894,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1886,10 +1908,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1900,10 +1922,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1911,7 +1933,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="37395" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="37395" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3D Printed Parts" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
   <si>
     <t>Ball Bearing (id:8mm;od:22mm;w:7mm)</t>
   </si>
@@ -163,24 +163,15 @@
     <t>Centrifuge Box - Top Ball Bearing House Cross v.2</t>
   </si>
   <si>
-    <t>Centifuge Test Tube Holder - With Holes</t>
-  </si>
-  <si>
     <t>4 Tube Holes for d:29mm, l: 116mm tubes</t>
   </si>
   <si>
-    <t>Centifuge Test Tube Holder - No Holes</t>
-  </si>
-  <si>
     <t>Template to use if custom tube sizes are needed</t>
   </si>
   <si>
     <t>Top Cover to protect user if something goes wrong</t>
   </si>
   <si>
-    <t>Support Piece for Digit Display and Btn Board</t>
-  </si>
-  <si>
     <t>Helper parts to hold and support the button and display parts ( (needs to be glued))</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
     <t>To fasten the 4 Box Corner Stands to the 2020 extrusions</t>
   </si>
   <si>
-    <t>Motor &amp; Arduino Holder [MIRRORED] (Only Used if v.1 is not used)</t>
-  </si>
-  <si>
     <t>Centrifuge Box - lv01 (Bottom) v.1</t>
   </si>
   <si>
@@ -422,6 +410,24 @@
   </si>
   <si>
     <t>Shaft M8 (Steel) 160mm</t>
+  </si>
+  <si>
+    <t>Motor &amp; Arduino Holder [MIRRORED] (Only Use if v.1 is not used)</t>
+  </si>
+  <si>
+    <t>Centrifuge Test Tube Holder - No Holes</t>
+  </si>
+  <si>
+    <t>Centrifuge Test Tube Holder - With Holes</t>
+  </si>
+  <si>
+    <t>Support Piece for Digit Display and Button Board</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>Any electric wires that solves the connects properly (Various lengths)</t>
   </si>
 </sst>
 </file>
@@ -804,7 +810,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -851,7 +857,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -932,10 +938,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
@@ -960,10 +966,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -974,10 +980,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -991,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1002,10 +1008,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1016,10 +1022,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -1033,7 +1039,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1">
         <v>4</v>
@@ -1047,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -1055,7 +1061,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1068,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1175,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1200,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1225,18 +1231,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="D12"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1267,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1297,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -1311,10 +1327,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -1328,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1342,7 +1358,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -1356,7 +1372,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -1370,7 +1386,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -1384,7 +1400,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -1398,7 +1414,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
@@ -1412,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1426,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1440,7 +1456,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1451,10 +1467,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1465,10 +1481,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -1482,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -1493,10 +1509,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1510,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1524,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1538,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1603,7 +1619,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
@@ -1614,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1628,10 +1644,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1642,10 +1658,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1656,10 +1672,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1670,10 +1686,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1684,10 +1700,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1698,10 +1714,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1712,10 +1728,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1726,10 +1742,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1740,10 +1756,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1754,10 +1770,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1768,10 +1784,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1782,10 +1798,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1796,10 +1812,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1810,10 +1826,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1824,10 +1840,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1838,10 +1854,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1852,10 +1868,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1866,10 +1882,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1880,10 +1896,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1894,10 +1910,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1908,10 +1924,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1922,10 +1938,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1933,7 +1949,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="37395" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="37395" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3D Printed Parts" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="139">
   <si>
     <t>Ball Bearing (id:8mm;od:22mm;w:7mm)</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>Any electric wires that solves the connects properly (Various lengths)</t>
+  </si>
+  <si>
+    <t>Bolts M2 x 5</t>
+  </si>
+  <si>
+    <t>To fasten the boards to the bottom of the Centrifuge box</t>
   </si>
 </sst>
 </file>
@@ -810,7 +816,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1283,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,6 +1564,20 @@
       </c>
       <c r="D19" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
